--- a/data/pca/factorExposure/factorExposure_2012-01-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-01-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0167501164023028</v>
+        <v>0.015327649427654</v>
       </c>
       <c r="C2">
-        <v>0.03150394291604379</v>
+        <v>0.02530199109434825</v>
       </c>
       <c r="D2">
-        <v>-0.01775930661155113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01806785109585467</v>
+      </c>
+      <c r="E2">
+        <v>-0.01295415410716183</v>
+      </c>
+      <c r="F2">
+        <v>0.01347372649295115</v>
+      </c>
+      <c r="G2">
+        <v>0.003382724230916186</v>
+      </c>
+      <c r="H2">
+        <v>0.04974914943407749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07329520310867646</v>
+        <v>0.08786818358843132</v>
       </c>
       <c r="C4">
-        <v>0.05344620486175081</v>
+        <v>0.03981430469058646</v>
       </c>
       <c r="D4">
-        <v>-0.08654670310445327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06824402881837903</v>
+      </c>
+      <c r="E4">
+        <v>-0.006471144627029794</v>
+      </c>
+      <c r="F4">
+        <v>0.03719524067290781</v>
+      </c>
+      <c r="G4">
+        <v>0.002093077759429574</v>
+      </c>
+      <c r="H4">
+        <v>-0.03904692283564598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.10937405011858</v>
+        <v>0.1215180263440988</v>
       </c>
       <c r="C6">
-        <v>0.05069698525945755</v>
+        <v>0.03601011298980534</v>
       </c>
       <c r="D6">
-        <v>-0.006640747070179624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01152405631238836</v>
+      </c>
+      <c r="E6">
+        <v>0.02428290239042058</v>
+      </c>
+      <c r="F6">
+        <v>0.05515902458707544</v>
+      </c>
+      <c r="G6">
+        <v>0.02863777442891076</v>
+      </c>
+      <c r="H6">
+        <v>0.1267800281238684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05401740735939166</v>
+        <v>0.06290412635458309</v>
       </c>
       <c r="C7">
-        <v>0.02556572948834747</v>
+        <v>0.01398744683246175</v>
       </c>
       <c r="D7">
-        <v>-0.03603582700196901</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04792193729285148</v>
+      </c>
+      <c r="E7">
+        <v>-0.03713616611074896</v>
+      </c>
+      <c r="F7">
+        <v>0.0352858190562842</v>
+      </c>
+      <c r="G7">
+        <v>-0.03230252450348003</v>
+      </c>
+      <c r="H7">
+        <v>-0.01758280087058441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03997264616565943</v>
+        <v>0.04131308557595786</v>
       </c>
       <c r="C8">
-        <v>0.01446337084831277</v>
+        <v>0.009040297063708635</v>
       </c>
       <c r="D8">
-        <v>-0.06228400125426937</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02654002944016628</v>
+      </c>
+      <c r="E8">
+        <v>-0.01939294788578207</v>
+      </c>
+      <c r="F8">
+        <v>0.05889203231435185</v>
+      </c>
+      <c r="G8">
+        <v>0.05825085358090774</v>
+      </c>
+      <c r="H8">
+        <v>0.004741128559915449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06791148640870945</v>
+        <v>0.07897172595630735</v>
       </c>
       <c r="C9">
-        <v>0.03989700822269206</v>
+        <v>0.02670866051635091</v>
       </c>
       <c r="D9">
-        <v>-0.07651419686614531</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06398679354940608</v>
+      </c>
+      <c r="E9">
+        <v>-0.02710522906792957</v>
+      </c>
+      <c r="F9">
+        <v>0.03563600686764726</v>
+      </c>
+      <c r="G9">
+        <v>0.01221023527794966</v>
+      </c>
+      <c r="H9">
+        <v>-0.05235605158811774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03106650367080359</v>
+        <v>0.03882636374630878</v>
       </c>
       <c r="C10">
-        <v>0.02480637448756537</v>
+        <v>0.04725266740461689</v>
       </c>
       <c r="D10">
-        <v>0.1680951347296221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1730571374392588</v>
+      </c>
+      <c r="E10">
+        <v>-0.03634842983322533</v>
+      </c>
+      <c r="F10">
+        <v>0.05148197494424336</v>
+      </c>
+      <c r="G10">
+        <v>-0.01426424271217899</v>
+      </c>
+      <c r="H10">
+        <v>0.03455865996460606</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07329245712544262</v>
+        <v>0.07667395969393785</v>
       </c>
       <c r="C11">
-        <v>0.04323263082978944</v>
+        <v>0.02311292744627957</v>
       </c>
       <c r="D11">
-        <v>-0.05449999409733414</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06241685353841268</v>
+      </c>
+      <c r="E11">
+        <v>0.005106533372637945</v>
+      </c>
+      <c r="F11">
+        <v>0.030462683289216</v>
+      </c>
+      <c r="G11">
+        <v>0.01685273085693384</v>
+      </c>
+      <c r="H11">
+        <v>-0.08449291211160798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06117567667322572</v>
+        <v>0.06940328978873617</v>
       </c>
       <c r="C12">
-        <v>0.05159244355122282</v>
+        <v>0.03527784285695204</v>
       </c>
       <c r="D12">
-        <v>-0.04318657746077803</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04670148859163616</v>
+      </c>
+      <c r="E12">
+        <v>-0.01163447809177175</v>
+      </c>
+      <c r="F12">
+        <v>0.02290071883827838</v>
+      </c>
+      <c r="G12">
+        <v>0.01388407545761886</v>
+      </c>
+      <c r="H12">
+        <v>-0.03897902633543011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06442803732794172</v>
+        <v>0.0669848749109319</v>
       </c>
       <c r="C13">
-        <v>0.03386157623874127</v>
+        <v>0.0193182438108651</v>
       </c>
       <c r="D13">
-        <v>-0.05222574935363293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03895831416473156</v>
+      </c>
+      <c r="E13">
+        <v>-0.01145597127340238</v>
+      </c>
+      <c r="F13">
+        <v>0.009702447312367924</v>
+      </c>
+      <c r="G13">
+        <v>-0.003507558076463773</v>
+      </c>
+      <c r="H13">
+        <v>-0.05775422791314404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03328378684147391</v>
+        <v>0.03952935510506172</v>
       </c>
       <c r="C14">
-        <v>0.0310189825403745</v>
+        <v>0.02713320128553512</v>
       </c>
       <c r="D14">
-        <v>-0.002913432817234463</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01276866887395094</v>
+      </c>
+      <c r="E14">
+        <v>-0.03219220151113722</v>
+      </c>
+      <c r="F14">
+        <v>0.01515580664293391</v>
+      </c>
+      <c r="G14">
+        <v>0.01495021950253115</v>
+      </c>
+      <c r="H14">
+        <v>-0.0586469131028587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04022713362034765</v>
+        <v>0.03938871869206534</v>
       </c>
       <c r="C15">
-        <v>0.008671768704213772</v>
+        <v>0.002234880222552693</v>
       </c>
       <c r="D15">
-        <v>-0.01993641482315692</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.008270921392341805</v>
+      </c>
+      <c r="E15">
+        <v>-0.03606394861955815</v>
+      </c>
+      <c r="F15">
+        <v>6.380930202560232e-05</v>
+      </c>
+      <c r="G15">
+        <v>0.0284954729066931</v>
+      </c>
+      <c r="H15">
+        <v>-0.0311929097321188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06159940156870466</v>
+        <v>0.07129821599314538</v>
       </c>
       <c r="C16">
-        <v>0.04028185348786398</v>
+        <v>0.02539581891175143</v>
       </c>
       <c r="D16">
-        <v>-0.04779274346295295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06009833376246743</v>
+      </c>
+      <c r="E16">
+        <v>-0.003932762546179218</v>
+      </c>
+      <c r="F16">
+        <v>0.02936432156963917</v>
+      </c>
+      <c r="G16">
+        <v>0.01027988836788662</v>
+      </c>
+      <c r="H16">
+        <v>-0.05618976711240933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06247891988110858</v>
+        <v>0.06310299439688326</v>
       </c>
       <c r="C20">
-        <v>0.02391768505674459</v>
+        <v>0.009006669255642551</v>
       </c>
       <c r="D20">
-        <v>-0.05005870588604894</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03876476955132116</v>
+      </c>
+      <c r="E20">
+        <v>-0.01601723324265856</v>
+      </c>
+      <c r="F20">
+        <v>0.03046532134534442</v>
+      </c>
+      <c r="G20">
+        <v>0.01820245784392291</v>
+      </c>
+      <c r="H20">
+        <v>-0.04448161053256456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02661954555424583</v>
+        <v>0.02619512987971669</v>
       </c>
       <c r="C21">
-        <v>-0.002064501964126858</v>
+        <v>-0.00965927376006097</v>
       </c>
       <c r="D21">
-        <v>-0.0206465482992268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02313660122970503</v>
+      </c>
+      <c r="E21">
+        <v>-0.04284601782102219</v>
+      </c>
+      <c r="F21">
+        <v>-0.01376057677211872</v>
+      </c>
+      <c r="G21">
+        <v>0.007439081482635363</v>
+      </c>
+      <c r="H21">
+        <v>0.05121812877823494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07943101882180047</v>
+        <v>0.07048758228792619</v>
       </c>
       <c r="C22">
-        <v>0.06013376357027154</v>
+        <v>0.03495017781458552</v>
       </c>
       <c r="D22">
-        <v>-0.1335793444377509</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.09135660867487778</v>
+      </c>
+      <c r="E22">
+        <v>-0.605597366569177</v>
+      </c>
+      <c r="F22">
+        <v>-0.1258824477943044</v>
+      </c>
+      <c r="G22">
+        <v>-0.09275278468124606</v>
+      </c>
+      <c r="H22">
+        <v>0.1639299061814828</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.08041778708427175</v>
+        <v>0.0713183174964595</v>
       </c>
       <c r="C23">
-        <v>0.05887639507520633</v>
+        <v>0.03348766551650891</v>
       </c>
       <c r="D23">
-        <v>-0.13491795901929</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.09206374090664038</v>
+      </c>
+      <c r="E23">
+        <v>-0.6046908973636771</v>
+      </c>
+      <c r="F23">
+        <v>-0.1248275102117804</v>
+      </c>
+      <c r="G23">
+        <v>-0.09157393441296222</v>
+      </c>
+      <c r="H23">
+        <v>0.1606556560996695</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0751169513182182</v>
+        <v>0.0804732647764292</v>
       </c>
       <c r="C24">
-        <v>0.05119505146194087</v>
+        <v>0.0317756525927104</v>
       </c>
       <c r="D24">
-        <v>-0.05717252918669558</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06061984771405253</v>
+      </c>
+      <c r="E24">
+        <v>-0.01620273231171537</v>
+      </c>
+      <c r="F24">
+        <v>0.03898925594792692</v>
+      </c>
+      <c r="G24">
+        <v>0.02465476354749023</v>
+      </c>
+      <c r="H24">
+        <v>-0.04553552214847156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07506818164871122</v>
+        <v>0.07923259265971644</v>
       </c>
       <c r="C25">
-        <v>0.05466750976618665</v>
+        <v>0.03546561437557436</v>
       </c>
       <c r="D25">
-        <v>-0.06485679682341219</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05083779739294498</v>
+      </c>
+      <c r="E25">
+        <v>-0.01965425432852977</v>
+      </c>
+      <c r="F25">
+        <v>0.03089879818447101</v>
+      </c>
+      <c r="G25">
+        <v>0.03331378912996634</v>
+      </c>
+      <c r="H25">
+        <v>-0.05191577229734426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04569415670100382</v>
+        <v>0.04706558261322476</v>
       </c>
       <c r="C26">
-        <v>0.009019214354879514</v>
+        <v>0.0005586765144709548</v>
       </c>
       <c r="D26">
-        <v>-0.01194473243971985</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01775222092521133</v>
+      </c>
+      <c r="E26">
+        <v>-0.04286434597199232</v>
+      </c>
+      <c r="F26">
+        <v>0.03196247096504973</v>
+      </c>
+      <c r="G26">
+        <v>-0.0008584401517807464</v>
+      </c>
+      <c r="H26">
+        <v>-0.05060525519951062</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.051887737944334</v>
+        <v>0.06611113712668755</v>
       </c>
       <c r="C28">
-        <v>0.06818303827945915</v>
+        <v>0.09965436219165029</v>
       </c>
       <c r="D28">
-        <v>0.3023844328086252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.3009591954388377</v>
+      </c>
+      <c r="E28">
+        <v>-0.03256383957805539</v>
+      </c>
+      <c r="F28">
+        <v>0.0556109981778701</v>
+      </c>
+      <c r="G28">
+        <v>0.03388919091292351</v>
+      </c>
+      <c r="H28">
+        <v>0.04675797731227297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04206949632881417</v>
+        <v>0.04779502199580549</v>
       </c>
       <c r="C29">
-        <v>0.02899899339813835</v>
+        <v>0.02453035994078759</v>
       </c>
       <c r="D29">
-        <v>-0.008454694690253015</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.010543667407379</v>
+      </c>
+      <c r="E29">
+        <v>-0.0612814545752817</v>
+      </c>
+      <c r="F29">
+        <v>0.01516604572251541</v>
+      </c>
+      <c r="G29">
+        <v>-0.0003215719745577077</v>
+      </c>
+      <c r="H29">
+        <v>-0.07170664274254826</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1295941855219113</v>
+        <v>0.1303657902935881</v>
       </c>
       <c r="C30">
-        <v>0.08752959554699839</v>
+        <v>0.05886238931575191</v>
       </c>
       <c r="D30">
-        <v>-0.1019392153648771</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.07089236541078178</v>
+      </c>
+      <c r="E30">
+        <v>-0.08295898887648215</v>
+      </c>
+      <c r="F30">
+        <v>0.005062168678716666</v>
+      </c>
+      <c r="G30">
+        <v>0.08552588064311886</v>
+      </c>
+      <c r="H30">
+        <v>0.06285940034446276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04474684562839603</v>
+        <v>0.04828254465513424</v>
       </c>
       <c r="C31">
-        <v>0.02229973858088652</v>
+        <v>0.01265342495291292</v>
       </c>
       <c r="D31">
-        <v>-0.02300121729085711</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03051711165531081</v>
+      </c>
+      <c r="E31">
+        <v>-0.02498630443665851</v>
+      </c>
+      <c r="F31">
+        <v>0.01268409010817269</v>
+      </c>
+      <c r="G31">
+        <v>-0.01876695658809658</v>
+      </c>
+      <c r="H31">
+        <v>-0.06887345011337594</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0366129050952945</v>
+        <v>0.03779072184194728</v>
       </c>
       <c r="C32">
-        <v>0.023970003032722</v>
+        <v>0.02034072654421492</v>
       </c>
       <c r="D32">
-        <v>-0.02448168272445558</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01005118837887658</v>
+      </c>
+      <c r="E32">
+        <v>-0.05440161110342583</v>
+      </c>
+      <c r="F32">
+        <v>-0.00491736969727533</v>
+      </c>
+      <c r="G32">
+        <v>0.04148389545381728</v>
+      </c>
+      <c r="H32">
+        <v>-0.06377418241609885</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08475920945701124</v>
+        <v>0.09556165327519948</v>
       </c>
       <c r="C33">
-        <v>0.03939190598955527</v>
+        <v>0.02317180519633541</v>
       </c>
       <c r="D33">
-        <v>-0.05616153123524928</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04602196573081616</v>
+      </c>
+      <c r="E33">
+        <v>-0.0161331152121882</v>
+      </c>
+      <c r="F33">
+        <v>0.008943892261025559</v>
+      </c>
+      <c r="G33">
+        <v>0.002656942421737802</v>
+      </c>
+      <c r="H33">
+        <v>-0.05831177048350124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05899445489327326</v>
+        <v>0.06377871567664523</v>
       </c>
       <c r="C34">
-        <v>0.02543418833438562</v>
+        <v>0.009994310696904601</v>
       </c>
       <c r="D34">
-        <v>-0.05399650420479761</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04918900724895355</v>
+      </c>
+      <c r="E34">
+        <v>-0.007824574869864665</v>
+      </c>
+      <c r="F34">
+        <v>0.021090993938696</v>
+      </c>
+      <c r="G34">
+        <v>0.01023427825699817</v>
+      </c>
+      <c r="H34">
+        <v>-0.06149967606059137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03608148652956564</v>
+        <v>0.038516255283576</v>
       </c>
       <c r="C35">
-        <v>0.007705438071275445</v>
+        <v>0.00245926784012611</v>
       </c>
       <c r="D35">
-        <v>-0.01719229526293824</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01378199772815783</v>
+      </c>
+      <c r="E35">
+        <v>-0.02160465119870027</v>
+      </c>
+      <c r="F35">
+        <v>-0.0167075442269668</v>
+      </c>
+      <c r="G35">
+        <v>-0.008195948604768419</v>
+      </c>
+      <c r="H35">
+        <v>-0.02020852500670594</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02341471044129478</v>
+        <v>0.02854293794810751</v>
       </c>
       <c r="C36">
-        <v>0.01778571251611063</v>
+        <v>0.01436192171143312</v>
       </c>
       <c r="D36">
-        <v>-0.02175051454589945</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01505511733700858</v>
+      </c>
+      <c r="E36">
+        <v>-0.03089744143556403</v>
+      </c>
+      <c r="F36">
+        <v>0.02498007762012839</v>
+      </c>
+      <c r="G36">
+        <v>-0.003122116350346444</v>
+      </c>
+      <c r="H36">
+        <v>-0.044246108596087</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0422708054159812</v>
+        <v>0.04380447575362758</v>
       </c>
       <c r="C38">
-        <v>0.001656210953146318</v>
+        <v>-0.005287405446223548</v>
       </c>
       <c r="D38">
-        <v>-0.01845785266855614</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02032651029202695</v>
+      </c>
+      <c r="E38">
+        <v>-0.05059449572252459</v>
+      </c>
+      <c r="F38">
+        <v>-0.004955132727213328</v>
+      </c>
+      <c r="G38">
+        <v>0.008856687307606723</v>
+      </c>
+      <c r="H38">
+        <v>-0.03677301413326928</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0921395941257749</v>
+        <v>0.1008212586442678</v>
       </c>
       <c r="C39">
-        <v>0.0679134775198714</v>
+        <v>0.0474019997307532</v>
       </c>
       <c r="D39">
-        <v>-0.05423160350756535</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06398488899677163</v>
+      </c>
+      <c r="E39">
+        <v>-0.008814893294907384</v>
+      </c>
+      <c r="F39">
+        <v>-0.002790398793919529</v>
+      </c>
+      <c r="G39">
+        <v>0.04780033998557797</v>
+      </c>
+      <c r="H39">
+        <v>-0.04147631235054047</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07944431269328589</v>
+        <v>0.06345291074812991</v>
       </c>
       <c r="C40">
-        <v>0.03352362318923674</v>
+        <v>0.005248994597632873</v>
       </c>
       <c r="D40">
-        <v>-0.005584407055061734</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.02803792822447226</v>
+      </c>
+      <c r="E40">
+        <v>-0.036015357053255</v>
+      </c>
+      <c r="F40">
+        <v>-0.04999526738165941</v>
+      </c>
+      <c r="G40">
+        <v>0.03789096233811769</v>
+      </c>
+      <c r="H40">
+        <v>0.06761988770627848</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04303907371631487</v>
+        <v>0.04410700673577533</v>
       </c>
       <c r="C41">
-        <v>0.005296912225436662</v>
+        <v>-0.005186988893051077</v>
       </c>
       <c r="D41">
-        <v>-0.03571334484301066</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03191849074621128</v>
+      </c>
+      <c r="E41">
+        <v>-0.002478534658791055</v>
+      </c>
+      <c r="F41">
+        <v>-0.01566714670799108</v>
+      </c>
+      <c r="G41">
+        <v>0.0153320935999237</v>
+      </c>
+      <c r="H41">
+        <v>-0.04249336130026904</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05222940730617809</v>
+        <v>0.0594480234682828</v>
       </c>
       <c r="C43">
-        <v>0.02598637044556482</v>
+        <v>0.01664691839157788</v>
       </c>
       <c r="D43">
-        <v>-0.01543169427564902</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02695925957867068</v>
+      </c>
+      <c r="E43">
+        <v>-0.0226270370842283</v>
+      </c>
+      <c r="F43">
+        <v>0.01276880001512503</v>
+      </c>
+      <c r="G43">
+        <v>-0.01619744569067718</v>
+      </c>
+      <c r="H43">
+        <v>-0.06706194149541883</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09697891663958851</v>
+        <v>0.0960090101532393</v>
       </c>
       <c r="C44">
-        <v>0.08548234532515381</v>
+        <v>0.05846238300890661</v>
       </c>
       <c r="D44">
-        <v>-0.07870324903449795</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.06576794390801045</v>
+      </c>
+      <c r="E44">
+        <v>-0.08039166784512032</v>
+      </c>
+      <c r="F44">
+        <v>0.07286969003643108</v>
+      </c>
+      <c r="G44">
+        <v>0.03103959380167442</v>
+      </c>
+      <c r="H44">
+        <v>-0.02995945119103259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02660274221422899</v>
+        <v>0.03442679764133198</v>
       </c>
       <c r="C46">
-        <v>0.016036148681702</v>
+        <v>0.01102947171520443</v>
       </c>
       <c r="D46">
-        <v>-0.02565932682482798</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03573631934391341</v>
+      </c>
+      <c r="E46">
+        <v>-0.03462828937188672</v>
+      </c>
+      <c r="F46">
+        <v>0.01340002259935667</v>
+      </c>
+      <c r="G46">
+        <v>-0.00504819157096361</v>
+      </c>
+      <c r="H46">
+        <v>-0.03275300110095843</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03086767360594929</v>
+        <v>0.03882893757683477</v>
       </c>
       <c r="C47">
-        <v>0.02351206967738826</v>
+        <v>0.01954154102697083</v>
       </c>
       <c r="D47">
-        <v>-0.005901519540661905</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.007937745753318043</v>
+      </c>
+      <c r="E47">
+        <v>-0.04407816168285429</v>
+      </c>
+      <c r="F47">
+        <v>0.01308413300671663</v>
+      </c>
+      <c r="G47">
+        <v>-0.04279861304674358</v>
+      </c>
+      <c r="H47">
+        <v>-0.035158809576931</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03401129215609412</v>
+        <v>0.03867003636879316</v>
       </c>
       <c r="C48">
-        <v>0.01748199755905679</v>
+        <v>0.01043813657663601</v>
       </c>
       <c r="D48">
-        <v>-0.03282750415098811</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01906399841867658</v>
+      </c>
+      <c r="E48">
+        <v>-0.03880132233864717</v>
+      </c>
+      <c r="F48">
+        <v>0.009956560462112888</v>
+      </c>
+      <c r="G48">
+        <v>0.01873071357283906</v>
+      </c>
+      <c r="H48">
+        <v>-0.03544142850843956</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1620113528008139</v>
+        <v>0.1912603545078554</v>
       </c>
       <c r="C49">
-        <v>0.04959597995227303</v>
+        <v>0.0300085535712923</v>
       </c>
       <c r="D49">
-        <v>0.002619286282142839</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.03156630800968257</v>
+      </c>
+      <c r="E49">
+        <v>0.1632668843350051</v>
+      </c>
+      <c r="F49">
+        <v>0.05636026144739695</v>
+      </c>
+      <c r="G49">
+        <v>-0.09013770705800264</v>
+      </c>
+      <c r="H49">
+        <v>0.2137437560893377</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0395256441113822</v>
+        <v>0.0452763857472181</v>
       </c>
       <c r="C50">
-        <v>0.01945090720489767</v>
+        <v>0.01198959727713391</v>
       </c>
       <c r="D50">
-        <v>-0.04489432198621757</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0362659710841435</v>
+      </c>
+      <c r="E50">
+        <v>-0.04173356528080834</v>
+      </c>
+      <c r="F50">
+        <v>0.01429079872330538</v>
+      </c>
+      <c r="G50">
+        <v>-0.01965794059750616</v>
+      </c>
+      <c r="H50">
+        <v>-0.07042334796550481</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02865421280730343</v>
+        <v>0.03124870933880528</v>
       </c>
       <c r="C51">
-        <v>0.01017569048478466</v>
+        <v>0.004470667184131745</v>
       </c>
       <c r="D51">
-        <v>-0.004971678679917744</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.007620804388548988</v>
+      </c>
+      <c r="E51">
+        <v>-0.009767336569053178</v>
+      </c>
+      <c r="F51">
+        <v>0.01519117266622079</v>
+      </c>
+      <c r="G51">
+        <v>0.0003202773324563118</v>
+      </c>
+      <c r="H51">
+        <v>0.0008424767989575788</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1558114578057781</v>
+        <v>0.1630641896308099</v>
       </c>
       <c r="C53">
-        <v>0.07256715351158102</v>
+        <v>0.04873899374619067</v>
       </c>
       <c r="D53">
-        <v>-0.00147195791497549</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02337879313265404</v>
+      </c>
+      <c r="E53">
+        <v>0.02830433309930324</v>
+      </c>
+      <c r="F53">
+        <v>0.01112517139683416</v>
+      </c>
+      <c r="G53">
+        <v>-0.01602353062337464</v>
+      </c>
+      <c r="H53">
+        <v>-0.1852419427603411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05738501112275362</v>
+        <v>0.05786383909242027</v>
       </c>
       <c r="C54">
-        <v>0.02250797635464666</v>
+        <v>0.01183017586709949</v>
       </c>
       <c r="D54">
-        <v>-0.01826016746110505</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01408419131940209</v>
+      </c>
+      <c r="E54">
+        <v>-0.04632624982634078</v>
+      </c>
+      <c r="F54">
+        <v>0.005506197324222024</v>
+      </c>
+      <c r="G54">
+        <v>0.03419051763382363</v>
+      </c>
+      <c r="H54">
+        <v>-0.04331130038284686</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09984300676814431</v>
+        <v>0.103903144974419</v>
       </c>
       <c r="C55">
-        <v>0.04874985547365673</v>
+        <v>0.0317710133330741</v>
       </c>
       <c r="D55">
-        <v>-0.02001425250171845</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02567928211613476</v>
+      </c>
+      <c r="E55">
+        <v>-0.008297148394655188</v>
+      </c>
+      <c r="F55">
+        <v>0.01325976066215625</v>
+      </c>
+      <c r="G55">
+        <v>-0.005861855960373922</v>
+      </c>
+      <c r="H55">
+        <v>-0.1584458591339701</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1519343990784911</v>
+        <v>0.1608736637419574</v>
       </c>
       <c r="C56">
-        <v>0.08362591885133638</v>
+        <v>0.05712560243254713</v>
       </c>
       <c r="D56">
-        <v>-0.01203378366294025</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03107148382644923</v>
+      </c>
+      <c r="E56">
+        <v>0.02018543371186393</v>
+      </c>
+      <c r="F56">
+        <v>0.03017331698680776</v>
+      </c>
+      <c r="G56">
+        <v>-0.02744006098818543</v>
+      </c>
+      <c r="H56">
+        <v>-0.1863883027392202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1309778082693294</v>
+        <v>0.09975418043039845</v>
       </c>
       <c r="C58">
-        <v>-0.004305083247676332</v>
+        <v>-0.04604463734444072</v>
       </c>
       <c r="D58">
-        <v>-0.02488690108303656</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03288849463518737</v>
+      </c>
+      <c r="E58">
+        <v>-0.1427827643367301</v>
+      </c>
+      <c r="F58">
+        <v>0.006773153298972647</v>
+      </c>
+      <c r="G58">
+        <v>-0.03420948170638847</v>
+      </c>
+      <c r="H58">
+        <v>0.1975702734815903</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1225433189870054</v>
+        <v>0.141713016448876</v>
       </c>
       <c r="C59">
-        <v>0.07465493763009494</v>
+        <v>0.1058753466620211</v>
       </c>
       <c r="D59">
-        <v>0.37746912004093</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3573604823206739</v>
+      </c>
+      <c r="E59">
+        <v>-0.02817414490617589</v>
+      </c>
+      <c r="F59">
+        <v>0.01310954270531457</v>
+      </c>
+      <c r="G59">
+        <v>-0.01372504147343789</v>
+      </c>
+      <c r="H59">
+        <v>-0.0002555005792687328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.208719749073519</v>
+        <v>0.2379994593929356</v>
       </c>
       <c r="C60">
-        <v>0.09125091705057066</v>
+        <v>0.06172371791616393</v>
       </c>
       <c r="D60">
-        <v>-0.02425853927921515</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04531868291785842</v>
+      </c>
+      <c r="E60">
+        <v>0.1080123306167247</v>
+      </c>
+      <c r="F60">
+        <v>0.05364438009158038</v>
+      </c>
+      <c r="G60">
+        <v>0.00396310943166518</v>
+      </c>
+      <c r="H60">
+        <v>0.1473408892093474</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08255205868082417</v>
+        <v>0.08938896432162907</v>
       </c>
       <c r="C61">
-        <v>0.04866425372630173</v>
+        <v>0.03355299072736188</v>
       </c>
       <c r="D61">
-        <v>-0.03715685637878481</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04131564761897642</v>
+      </c>
+      <c r="E61">
+        <v>-0.003211839540225358</v>
+      </c>
+      <c r="F61">
+        <v>0.00352844673181936</v>
+      </c>
+      <c r="G61">
+        <v>0.01193444299113505</v>
+      </c>
+      <c r="H61">
+        <v>-0.05981246523315159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1308315084263103</v>
+        <v>0.1372490400406228</v>
       </c>
       <c r="C62">
-        <v>0.05901746765121204</v>
+        <v>0.0339215442962475</v>
       </c>
       <c r="D62">
-        <v>-0.01722189932356853</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.040362977881419</v>
+      </c>
+      <c r="E62">
+        <v>0.05398197088680343</v>
+      </c>
+      <c r="F62">
+        <v>0.003693251227187591</v>
+      </c>
+      <c r="G62">
+        <v>0.01715183266532079</v>
+      </c>
+      <c r="H62">
+        <v>-0.1782115685765159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05255039147038323</v>
+        <v>0.05248287879820918</v>
       </c>
       <c r="C63">
-        <v>0.02344867639145005</v>
+        <v>0.01403295765570572</v>
       </c>
       <c r="D63">
-        <v>-0.02219374774831046</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01861955706327807</v>
+      </c>
+      <c r="E63">
+        <v>-0.04859673692383199</v>
+      </c>
+      <c r="F63">
+        <v>-0.004219957304449276</v>
+      </c>
+      <c r="G63">
+        <v>0.02242794462962278</v>
+      </c>
+      <c r="H63">
+        <v>-0.04350145596730962</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1046287334539955</v>
+        <v>0.1082124223775238</v>
       </c>
       <c r="C64">
-        <v>0.03114227403680911</v>
+        <v>0.01501775098392894</v>
       </c>
       <c r="D64">
-        <v>-0.03252328184400102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02847090635959274</v>
+      </c>
+      <c r="E64">
+        <v>-0.03166615721620695</v>
+      </c>
+      <c r="F64">
+        <v>0.04301550794478379</v>
+      </c>
+      <c r="G64">
+        <v>0.05786702798926443</v>
+      </c>
+      <c r="H64">
+        <v>-0.04137834953377838</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1270807183298708</v>
+        <v>0.1292884372649454</v>
       </c>
       <c r="C65">
-        <v>0.05795055470854139</v>
+        <v>0.04000453896484931</v>
       </c>
       <c r="D65">
-        <v>-0.001848715897453229</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.008594983852087597</v>
+      </c>
+      <c r="E65">
+        <v>0.005704361518718852</v>
+      </c>
+      <c r="F65">
+        <v>0.05480390169255155</v>
+      </c>
+      <c r="G65">
+        <v>0.05134850423556438</v>
+      </c>
+      <c r="H65">
+        <v>0.1639765537291552</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1491946542242892</v>
+        <v>0.152727456570416</v>
       </c>
       <c r="C66">
-        <v>0.06743881000640058</v>
+        <v>0.03553449284036484</v>
       </c>
       <c r="D66">
-        <v>-0.09783509527295389</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.0975756421577849</v>
+      </c>
+      <c r="E66">
+        <v>0.01866065716436536</v>
+      </c>
+      <c r="F66">
+        <v>0.007055414326915158</v>
+      </c>
+      <c r="G66">
+        <v>0.0564304655096674</v>
+      </c>
+      <c r="H66">
+        <v>-0.1103094793116123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07492360090904665</v>
+        <v>0.08410239035852228</v>
       </c>
       <c r="C67">
-        <v>0.009048445873691632</v>
+        <v>-0.0009080440865004827</v>
       </c>
       <c r="D67">
-        <v>-0.02301265239320448</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03210079934589138</v>
+      </c>
+      <c r="E67">
+        <v>-0.01681026732295817</v>
+      </c>
+      <c r="F67">
+        <v>0.01913519607849733</v>
+      </c>
+      <c r="G67">
+        <v>-0.008330319217948932</v>
+      </c>
+      <c r="H67">
+        <v>-0.04216651203198364</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05823994868141602</v>
+        <v>0.06135032869768076</v>
       </c>
       <c r="C68">
-        <v>0.04832888851668248</v>
+        <v>0.07494507879536448</v>
       </c>
       <c r="D68">
-        <v>0.2554189545735963</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2658412613012371</v>
+      </c>
+      <c r="E68">
+        <v>-0.03950702208531694</v>
+      </c>
+      <c r="F68">
+        <v>0.01535048852563675</v>
+      </c>
+      <c r="G68">
+        <v>-0.00678433939324382</v>
+      </c>
+      <c r="H68">
+        <v>-0.005487890886717048</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05178567151042329</v>
+        <v>0.05292927107980744</v>
       </c>
       <c r="C69">
-        <v>0.01515320222862997</v>
+        <v>0.004352040179210709</v>
       </c>
       <c r="D69">
-        <v>-0.0201246852823259</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01631463245073748</v>
+      </c>
+      <c r="E69">
+        <v>-0.02588280139375547</v>
+      </c>
+      <c r="F69">
+        <v>-0.01070849956125872</v>
+      </c>
+      <c r="G69">
+        <v>-0.02102818433546228</v>
+      </c>
+      <c r="H69">
+        <v>-0.05477435542553141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003530895749409223</v>
+        <v>0.02884621355500476</v>
       </c>
       <c r="C70">
-        <v>-0.008949557597856109</v>
+        <v>-0.002623110785541263</v>
       </c>
       <c r="D70">
-        <v>0.005375224269916266</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.005459254423621287</v>
+      </c>
+      <c r="E70">
+        <v>0.02665683814884521</v>
+      </c>
+      <c r="F70">
+        <v>0.01168810075790442</v>
+      </c>
+      <c r="G70">
+        <v>-0.0199144895794607</v>
+      </c>
+      <c r="H70">
+        <v>0.02320659903097692</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05734371701952336</v>
+        <v>0.06455486590004191</v>
       </c>
       <c r="C71">
-        <v>0.04857229774684755</v>
+        <v>0.08166793736239261</v>
       </c>
       <c r="D71">
-        <v>0.2893283097516731</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2923871388859701</v>
+      </c>
+      <c r="E71">
+        <v>-0.03443591069290564</v>
+      </c>
+      <c r="F71">
+        <v>0.04490845730101172</v>
+      </c>
+      <c r="G71">
+        <v>0.00374359539846152</v>
+      </c>
+      <c r="H71">
+        <v>-0.01026334559483914</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1431875631452195</v>
+        <v>0.1457243463206189</v>
       </c>
       <c r="C72">
-        <v>0.05856870728526709</v>
+        <v>0.03261823173587927</v>
       </c>
       <c r="D72">
-        <v>-0.0003965190590330691</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.001523061052151114</v>
+      </c>
+      <c r="E72">
+        <v>0.07537025548737779</v>
+      </c>
+      <c r="F72">
+        <v>-0.170804027985819</v>
+      </c>
+      <c r="G72">
+        <v>0.1194964515773923</v>
+      </c>
+      <c r="H72">
+        <v>0.002218244750206488</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2854696076943082</v>
+        <v>0.2875103420877089</v>
       </c>
       <c r="C73">
-        <v>0.0942393235170942</v>
+        <v>0.03102151924705792</v>
       </c>
       <c r="D73">
-        <v>-0.04996601606990583</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1030140506678603</v>
+      </c>
+      <c r="E73">
+        <v>0.2251818445273508</v>
+      </c>
+      <c r="F73">
+        <v>0.08677417445808618</v>
+      </c>
+      <c r="G73">
+        <v>-0.1791933314454649</v>
+      </c>
+      <c r="H73">
+        <v>0.475369023711761</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08330631018347899</v>
+        <v>0.09135948540501269</v>
       </c>
       <c r="C74">
-        <v>0.07567451753230062</v>
+        <v>0.05758512374297465</v>
       </c>
       <c r="D74">
-        <v>-0.005525932448088763</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03364271869060131</v>
+      </c>
+      <c r="E74">
+        <v>0.001082667456579474</v>
+      </c>
+      <c r="F74">
+        <v>-0.0004726123271824098</v>
+      </c>
+      <c r="G74">
+        <v>-0.04608541468479062</v>
+      </c>
+      <c r="H74">
+        <v>-0.1256627554495235</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09653568118825864</v>
+        <v>0.1014585354200989</v>
       </c>
       <c r="C75">
-        <v>0.04727472243701842</v>
+        <v>0.02517462991842539</v>
       </c>
       <c r="D75">
-        <v>-0.006306186307800664</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.01914242970359597</v>
+      </c>
+      <c r="E75">
+        <v>-0.002728732939502107</v>
+      </c>
+      <c r="F75">
+        <v>0.01962836188164281</v>
+      </c>
+      <c r="G75">
+        <v>-0.02644802559153159</v>
+      </c>
+      <c r="H75">
+        <v>-0.115378364757915</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1324287629397943</v>
+        <v>0.1426043981648091</v>
       </c>
       <c r="C76">
-        <v>0.07814822725132062</v>
+        <v>0.05464490672046908</v>
       </c>
       <c r="D76">
-        <v>-0.039476423892487</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05178261657360375</v>
+      </c>
+      <c r="E76">
+        <v>-0.01531110973346857</v>
+      </c>
+      <c r="F76">
+        <v>0.04825429992867958</v>
+      </c>
+      <c r="G76">
+        <v>-0.01478979887687278</v>
+      </c>
+      <c r="H76">
+        <v>-0.2102353565695436</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1167374089382866</v>
+        <v>0.1054088622614769</v>
       </c>
       <c r="C77">
-        <v>0.009676704268631499</v>
+        <v>-0.02031865360764067</v>
       </c>
       <c r="D77">
-        <v>-0.09429781421592223</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04050628978687018</v>
+      </c>
+      <c r="E77">
+        <v>-0.01186879869938605</v>
+      </c>
+      <c r="F77">
+        <v>0.08387698725805152</v>
+      </c>
+      <c r="G77">
+        <v>0.8743604692578463</v>
+      </c>
+      <c r="H77">
+        <v>0.1588635032345856</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1082010307024455</v>
+        <v>0.1471565852464578</v>
       </c>
       <c r="C78">
-        <v>0.03649817121873889</v>
+        <v>0.03019128495574936</v>
       </c>
       <c r="D78">
-        <v>-0.08167801799381658</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07797015775939614</v>
+      </c>
+      <c r="E78">
+        <v>-0.0517607519404998</v>
+      </c>
+      <c r="F78">
+        <v>0.05841811432620232</v>
+      </c>
+      <c r="G78">
+        <v>0.08540372269830548</v>
+      </c>
+      <c r="H78">
+        <v>0.03426888042804031</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1483651245836715</v>
+        <v>0.1497187194876414</v>
       </c>
       <c r="C79">
-        <v>0.06624951173529679</v>
+        <v>0.0354411369810732</v>
       </c>
       <c r="D79">
-        <v>-0.0205811925160309</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03315449503883434</v>
+      </c>
+      <c r="E79">
+        <v>0.01483185449981769</v>
+      </c>
+      <c r="F79">
+        <v>0.0179020474833037</v>
+      </c>
+      <c r="G79">
+        <v>-0.0306997580731398</v>
+      </c>
+      <c r="H79">
+        <v>-0.1634454366990957</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04100894535439245</v>
+        <v>0.04226092815487093</v>
       </c>
       <c r="C80">
-        <v>0.01879913844155862</v>
+        <v>0.0128211181658692</v>
       </c>
       <c r="D80">
-        <v>-0.02786247038792294</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0144747065064292</v>
+      </c>
+      <c r="E80">
+        <v>0.02961792209434795</v>
+      </c>
+      <c r="F80">
+        <v>0.004649649797044514</v>
+      </c>
+      <c r="G80">
+        <v>-0.02061728703058974</v>
+      </c>
+      <c r="H80">
+        <v>-0.04318316833385383</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1185547385887528</v>
+        <v>0.1204591078428991</v>
       </c>
       <c r="C81">
-        <v>0.05904402120201421</v>
+        <v>0.03467397028628835</v>
       </c>
       <c r="D81">
-        <v>-0.03080730296588273</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.0284230849356856</v>
+      </c>
+      <c r="E81">
+        <v>-0.009280892488736446</v>
+      </c>
+      <c r="F81">
+        <v>0.02045778391419147</v>
+      </c>
+      <c r="G81">
+        <v>-0.05752379060232827</v>
+      </c>
+      <c r="H81">
+        <v>-0.1614608902068937</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1317411298188691</v>
+        <v>0.1311974787715615</v>
       </c>
       <c r="C82">
-        <v>0.07202807720975382</v>
+        <v>0.04739766543660082</v>
       </c>
       <c r="D82">
-        <v>-0.0117028364930693</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03277814967420923</v>
+      </c>
+      <c r="E82">
+        <v>0.02029215829216284</v>
+      </c>
+      <c r="F82">
+        <v>0.04893901229397122</v>
+      </c>
+      <c r="G82">
+        <v>-0.04133794182574943</v>
+      </c>
+      <c r="H82">
+        <v>-0.213982714961244</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07063025380978134</v>
+        <v>0.08460976481765251</v>
       </c>
       <c r="C83">
-        <v>-0.0218507651684776</v>
+        <v>-0.03280331159369567</v>
       </c>
       <c r="D83">
-        <v>-0.02487694087858993</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.02688287001390531</v>
+      </c>
+      <c r="E83">
+        <v>-0.02029612378163458</v>
+      </c>
+      <c r="F83">
+        <v>0.05572572310234625</v>
+      </c>
+      <c r="G83">
+        <v>-0.05717975043242617</v>
+      </c>
+      <c r="H83">
+        <v>0.04876271835219718</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02996435300820818</v>
+        <v>0.03686837721497046</v>
       </c>
       <c r="C84">
-        <v>0.02745840248370324</v>
+        <v>0.02090891449095383</v>
       </c>
       <c r="D84">
-        <v>-0.02719576452945068</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03169562272857655</v>
+      </c>
+      <c r="E84">
+        <v>-0.03188310491509395</v>
+      </c>
+      <c r="F84">
+        <v>-0.0518334816043387</v>
+      </c>
+      <c r="G84">
+        <v>-0.05705261297444833</v>
+      </c>
+      <c r="H84">
+        <v>-0.01059754933562946</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1151844042979776</v>
+        <v>0.1191006133560349</v>
       </c>
       <c r="C85">
-        <v>0.04224392886770508</v>
+        <v>0.01938958325405928</v>
       </c>
       <c r="D85">
-        <v>-0.04410432778543268</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.03743455871898626</v>
+      </c>
+      <c r="E85">
+        <v>-0.01868512804426386</v>
+      </c>
+      <c r="F85">
+        <v>0.04300165257602907</v>
+      </c>
+      <c r="G85">
+        <v>-0.02993737503662773</v>
+      </c>
+      <c r="H85">
+        <v>-0.1556210008079362</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05411252601805359</v>
+        <v>0.05920502880754143</v>
       </c>
       <c r="C86">
-        <v>0.02063535831919506</v>
+        <v>0.01017602451445957</v>
       </c>
       <c r="D86">
-        <v>-0.05384164893513269</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03104452649339568</v>
+      </c>
+      <c r="E86">
+        <v>-0.05425214165811858</v>
+      </c>
+      <c r="F86">
+        <v>0.02656917022771933</v>
+      </c>
+      <c r="G86">
+        <v>-0.02222957641885154</v>
+      </c>
+      <c r="H86">
+        <v>0.004740146450533104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1221700755142632</v>
+        <v>0.1251785952720589</v>
       </c>
       <c r="C87">
-        <v>0.06565876017714829</v>
+        <v>0.03261273030702695</v>
       </c>
       <c r="D87">
-        <v>-0.07391369304041026</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.06745605960866914</v>
+      </c>
+      <c r="E87">
+        <v>-0.01107912841337633</v>
+      </c>
+      <c r="F87">
+        <v>0.01080554877405803</v>
+      </c>
+      <c r="G87">
+        <v>0.1264847668774437</v>
+      </c>
+      <c r="H87">
+        <v>0.04226205202790188</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05330344027799936</v>
+        <v>0.06144184041577819</v>
       </c>
       <c r="C88">
-        <v>0.02857306441841315</v>
+        <v>0.01896169274724233</v>
       </c>
       <c r="D88">
-        <v>-0.02188373401355998</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03372228907349234</v>
+      </c>
+      <c r="E88">
+        <v>-0.01586894094922706</v>
+      </c>
+      <c r="F88">
+        <v>0.01127400365236242</v>
+      </c>
+      <c r="G88">
+        <v>0.01016765157904836</v>
+      </c>
+      <c r="H88">
+        <v>-0.04951299279613446</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08609570887845493</v>
+        <v>0.100177475680452</v>
       </c>
       <c r="C89">
-        <v>0.06952535123992613</v>
+        <v>0.1058554179685698</v>
       </c>
       <c r="D89">
-        <v>0.3294577589789631</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3430266884709995</v>
+      </c>
+      <c r="E89">
+        <v>-0.06843342583344501</v>
+      </c>
+      <c r="F89">
+        <v>0.08367535801917637</v>
+      </c>
+      <c r="G89">
+        <v>-0.0235851783571386</v>
+      </c>
+      <c r="H89">
+        <v>-0.008884493087550295</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07353616890940654</v>
+        <v>0.08267974731414449</v>
       </c>
       <c r="C90">
-        <v>0.0571960561714999</v>
+        <v>0.08714288331184193</v>
       </c>
       <c r="D90">
-        <v>0.3111215350711731</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.3017669266630543</v>
+      </c>
+      <c r="E90">
+        <v>-0.06931534378865814</v>
+      </c>
+      <c r="F90">
+        <v>0.009936940474670204</v>
+      </c>
+      <c r="G90">
+        <v>0.01215534023218757</v>
+      </c>
+      <c r="H90">
+        <v>0.004434392665214195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08929413577551193</v>
+        <v>0.09180091757853702</v>
       </c>
       <c r="C91">
-        <v>0.05051714120408025</v>
+        <v>0.02955173637086261</v>
       </c>
       <c r="D91">
-        <v>-0.02044698585008941</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02991311286933903</v>
+      </c>
+      <c r="E91">
+        <v>-0.00767281046476162</v>
+      </c>
+      <c r="F91">
+        <v>0.004135230940778893</v>
+      </c>
+      <c r="G91">
+        <v>-0.0398361031206114</v>
+      </c>
+      <c r="H91">
+        <v>-0.08573674489928397</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07466014330355011</v>
+        <v>0.08319514070029559</v>
       </c>
       <c r="C92">
-        <v>0.07353068285356569</v>
+        <v>0.1075043787180438</v>
       </c>
       <c r="D92">
-        <v>0.3371478942367138</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3365144553206727</v>
+      </c>
+      <c r="E92">
+        <v>-0.03923309505860955</v>
+      </c>
+      <c r="F92">
+        <v>0.04395039749677707</v>
+      </c>
+      <c r="G92">
+        <v>0.01525794339312126</v>
+      </c>
+      <c r="H92">
+        <v>-0.01552193173987202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06455807416562892</v>
+        <v>0.07846983162000352</v>
       </c>
       <c r="C93">
-        <v>0.06404314916220699</v>
+        <v>0.09972808876605156</v>
       </c>
       <c r="D93">
-        <v>0.2978210576860349</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.298323200734242</v>
+      </c>
+      <c r="E93">
+        <v>-0.0232963224309476</v>
+      </c>
+      <c r="F93">
+        <v>0.03385872405037173</v>
+      </c>
+      <c r="G93">
+        <v>0.02116706087257777</v>
+      </c>
+      <c r="H93">
+        <v>0.01404796694146673</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1353584219727902</v>
+        <v>0.1287642885653475</v>
       </c>
       <c r="C94">
-        <v>0.04411336209862554</v>
+        <v>0.01152188435894236</v>
       </c>
       <c r="D94">
-        <v>-0.03902073762046939</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04818328348390961</v>
+      </c>
+      <c r="E94">
+        <v>0.01685841119677245</v>
+      </c>
+      <c r="F94">
+        <v>0.01334589910468799</v>
+      </c>
+      <c r="G94">
+        <v>-0.06172099153191413</v>
+      </c>
+      <c r="H94">
+        <v>-0.1072393602497295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1248466454937361</v>
+        <v>0.1289625433673996</v>
       </c>
       <c r="C95">
-        <v>0.02618959457402861</v>
+        <v>-0.002241823717223087</v>
       </c>
       <c r="D95">
-        <v>-0.04670406142009131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.05774313033781456</v>
+      </c>
+      <c r="E95">
+        <v>-0.007758006609884936</v>
+      </c>
+      <c r="F95">
+        <v>0.03735015798805284</v>
+      </c>
+      <c r="G95">
+        <v>0.03978532507258346</v>
+      </c>
+      <c r="H95">
+        <v>0.06361427614470552</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2234353069661069</v>
+        <v>0.2046071810966984</v>
       </c>
       <c r="C97">
-        <v>0.04218148333741601</v>
+        <v>-0.002677253961996847</v>
       </c>
       <c r="D97">
-        <v>0.1169626060896209</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.07882986187449378</v>
+      </c>
+      <c r="E97">
+        <v>0.1546179254652167</v>
+      </c>
+      <c r="F97">
+        <v>-0.9158294336609935</v>
+      </c>
+      <c r="G97">
+        <v>0.05922278598616273</v>
+      </c>
+      <c r="H97">
+        <v>-0.01233066451415111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2476870436738975</v>
+        <v>0.2754372361342697</v>
       </c>
       <c r="C98">
-        <v>0.05856079921551531</v>
+        <v>0.02018898348526264</v>
       </c>
       <c r="D98">
-        <v>-0.03358979695475049</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05671308039075442</v>
+      </c>
+      <c r="E98">
+        <v>0.1915709593845201</v>
+      </c>
+      <c r="F98">
+        <v>0.04809507870433669</v>
+      </c>
+      <c r="G98">
+        <v>-0.2617218186768429</v>
+      </c>
+      <c r="H98">
+        <v>0.248989434408597</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4020830149302648</v>
+        <v>0.2668564543321053</v>
       </c>
       <c r="C99">
-        <v>-0.8978583448934754</v>
+        <v>-0.9268732680613803</v>
       </c>
       <c r="D99">
-        <v>0.05638877176227904</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.1910211255512132</v>
+      </c>
+      <c r="E99">
+        <v>-0.06975651655233368</v>
+      </c>
+      <c r="F99">
+        <v>0.06321681335276641</v>
+      </c>
+      <c r="G99">
+        <v>-0.01663502593738356</v>
+      </c>
+      <c r="H99">
+        <v>-0.06983983554414544</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04186227702019379</v>
+        <v>0.0476992394344718</v>
       </c>
       <c r="C101">
-        <v>0.02911402388195968</v>
+        <v>0.02476051238341172</v>
       </c>
       <c r="D101">
-        <v>-0.009240542369357448</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01082401107355588</v>
+      </c>
+      <c r="E101">
+        <v>-0.06123098912485321</v>
+      </c>
+      <c r="F101">
+        <v>0.01475796188761858</v>
+      </c>
+      <c r="G101">
+        <v>-0.001001172811406231</v>
+      </c>
+      <c r="H101">
+        <v>-0.07067974836725238</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
